--- a/docs/年终总结/2023年个人计划/2023年计划.xlsx
+++ b/docs/年终总结/2023年个人计划/2023年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420" activeTab="2"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2023周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -65,6 +65,20 @@
   </si>
   <si>
     <t>背英语单词</t>
+  </si>
+  <si>
+    <t>背英语单词
+hooks学习</t>
+  </si>
+  <si>
+    <t>1、每周至少2次健身塑形 10
+2、每周至少2小时阅读书籍 0
+3、每天学习前端知识 14
+4、每天学习英文20分钟 11
+5、12点前睡觉 10</t>
+  </si>
+  <si>
+    <t>1.09-1.15</t>
   </si>
   <si>
     <t>序号</t>
@@ -232,9 +246,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -274,13 +288,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -289,10 +318,102 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,113 +425,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -433,181 +447,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,11 +644,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,21 +664,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,32 +683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -718,148 +697,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1228,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1297,7 +1311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1313,8 +1327,26 @@
       <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="9:9">
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6" customHeight="1" spans="9:9">
@@ -1363,7 +1395,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67f96883-43dc-4b88-a068-04a845685b5a}</x14:id>
+          <x14:id>{a4629f6e-63a8-480d-9777-bee70f4b0589}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1375,7 +1407,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{67f96883-43dc-4b88-a068-04a845685b5a}">
+          <x14:cfRule type="dataBar" id="{a4629f6e-63a8-480d-9777-bee70f4b0589}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1415,22 +1447,22 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="62" spans="1:5">
@@ -1438,13 +1470,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -1455,13 +1487,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
@@ -1472,13 +1504,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -1489,13 +1521,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -1506,13 +1538,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5">
         <v>3</v>
@@ -1523,13 +1555,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -1540,13 +1572,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1564,7 +1596,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1576,16 +1608,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -1593,13 +1625,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1607,13 +1639,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1621,13 +1653,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1635,13 +1667,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1649,21 +1681,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="62" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2023年个人计划/2023年计划.xlsx
+++ b/docs/年终总结/2023年个人计划/2023年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -73,12 +73,15 @@
   <si>
     <t>1、每周至少2次健身塑形 10
 2、每周至少2小时阅读书籍 0
-3、每天学习前端知识 14
+3、每天学习前端知识,学习web3相关知识 14
 4、每天学习英文20分钟 11
 5、12点前睡觉 10</t>
   </si>
   <si>
     <t>1.09-1.15</t>
+  </si>
+  <si>
+    <t>学习hooks+web3</t>
   </si>
   <si>
     <t>序号</t>
@@ -120,13 +123,14 @@
     <t xml:space="preserve">
 1.存款到35万
 2.争取在事业上更进一步,朝资深前端努力,为之后事业多做准备
+3.系统地学习web3,成为一名web3开发者
 </t>
   </si>
   <si>
     <t xml:space="preserve">
 1.合理消费,投资理财
-2.做副业接单赚钱,学习合约开发
-3.学习前端知识，巩固技能,每天英语学习30分钟</t>
+2.学习前端知识，巩固技能,每天英语学习30分钟
+3.学习web3相关知识,学习合约开发,做副业接单赚钱,</t>
   </si>
   <si>
     <t>经营生活</t>
@@ -215,7 +219,7 @@
     <t>每周2小时</t>
   </si>
   <si>
-    <t>学习前端知识</t>
+    <t>学习前端知识,学习web3相关知识</t>
   </si>
   <si>
     <t>每天</t>
@@ -245,8 +249,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -282,7 +286,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,22 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,31 +331,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,8 +392,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -381,52 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,13 +451,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,37 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,121 +571,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,15 +636,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -668,6 +663,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -679,6 +700,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,183 +730,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,7 +1247,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -1251,7 +1255,7 @@
     <col min="1" max="1" width="16.125" style="7"/>
     <col min="2" max="8" width="16.125" style="8"/>
     <col min="9" max="9" width="16.125" style="9"/>
-    <col min="10" max="10" width="30.9464285714286" style="8" customWidth="1"/>
+    <col min="10" max="10" width="37.3392857142857" style="8" customWidth="1"/>
     <col min="11" max="16384" width="16.125" style="8"/>
   </cols>
   <sheetData>
@@ -1346,6 +1350,9 @@
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="I5" s="13"/>
     </row>
@@ -1395,7 +1402,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a4629f6e-63a8-480d-9777-bee70f4b0589}</x14:id>
+          <x14:id>{5e269497-1c63-4b49-ade0-ae6d89c38909}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1407,7 +1414,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a4629f6e-63a8-480d-9777-bee70f4b0589}">
+          <x14:cfRule type="dataBar" id="{5e269497-1c63-4b49-ade0-ae6d89c38909}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1431,7 +1438,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1447,22 +1454,22 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="62" spans="1:5">
@@ -1470,30 +1477,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="87" spans="1:5">
+    <row r="3" ht="100" spans="1:5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
@@ -1504,13 +1511,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -1521,13 +1528,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -1538,13 +1545,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5">
         <v>3</v>
@@ -1555,13 +1562,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -1572,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1597,7 +1604,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1608,16 +1615,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:4">
@@ -1625,13 +1632,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1639,13 +1646,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1653,13 +1660,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1667,13 +1674,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1681,21 +1688,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" ht="62" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2023年个人计划/2023年计划.xlsx
+++ b/docs/年终总结/2023年个人计划/2023年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2023周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -71,11 +71,12 @@
 hooks学习</t>
   </si>
   <si>
-    <t>1、每周至少2次健身塑形 10
-2、每周至少2小时阅读书籍 0
-3、每天学习前端知识,学习web3相关知识 14
-4、每天学习英文20分钟 11
-5、12点前睡觉 10</t>
+    <t>1、每周至少3次健身塑形或者打羽毛球  10
+2、每天学习前端知识  10
+3、每天学习英文20分钟 15
+4、健康饮食,12点前睡觉 5
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
   </si>
   <si>
     <t>1.09-1.15</t>
@@ -84,6 +85,40 @@
     <t>学习hooks+web3</t>
   </si>
   <si>
+    <t>学习hooks
+背英语单词</t>
+  </si>
+  <si>
+    <t>学习hooks
+背英语单词
+打羽毛球</t>
+  </si>
+  <si>
+    <t>过年</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球  6
+2、每天学习前端知识  6
+3、每天学习英文20分钟 10
+4、健康饮食,12点前睡觉 5
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>1.16-1.22</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球  0
+2、每天学习前端知识  0
+3、每天学习英文20分钟 0
+4、健康饮食,12点前睡觉 0
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>1.23-1.29</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -105,16 +140,13 @@
     <t>身体健康,改善体态</t>
   </si>
   <si>
-    <t xml:space="preserve">1.健身运动
-2.慢慢改善咽喉炎
-3.体重保持在90-95之间
-</t>
+    <t>1.健身运动,练出好身材,减肥到96斤以下
+2.慢慢改善咽喉炎</t>
   </si>
   <si>
     <t xml:space="preserve">
-1.每周打一次羽毛球或者其他运动
-2.早睡，12点前必须睡觉,运动
-3.控制饮食,多运动</t>
+1.控制饮食,多运动,每周三次体态训练,每周打一次羽毛球
+2.早睡，12点前必须睡觉,饮食清淡健康,多运动</t>
   </si>
   <si>
     <t>事业更上一层楼</t>
@@ -147,7 +179,7 @@
     <t>1.改掉自己思虑过多,不说话,生闷气的毛病,多表达,多沟通,要有耐心
 2.学会多站在别人的立场看事情,包容别人和自己
 3. 打扮自己，皮肤保养，穿有质感的衣服,注意形象
-4.和黎涛及其家人商量结婚事项,经营生活
+4.和黎涛结婚以及后续备孕
 5.在自己能力范围内,孝顺父母</t>
   </si>
   <si>
@@ -185,9 +217,8 @@
     <t>交友</t>
   </si>
   <si>
-    <t xml:space="preserve">1.多和比自己优秀的人学习
-2.变得更加落落大方
-</t>
+    <t>1.多和比自己优秀的人学习
+2.变得更加落落大方</t>
   </si>
   <si>
     <t>1.多参加有意义的聚会和讨论，不要怕生
@@ -206,42 +237,54 @@
     <t>健身塑形</t>
   </si>
   <si>
-    <t>每周至少2次美丽芭蕾天鹅臂
-或者练习帕梅拉,或者打羽毛球</t>
+    <t>每周至少3次形体训练,或者打羽毛球</t>
   </si>
   <si>
     <t>20分</t>
   </si>
   <si>
+    <t>学习前端知识,学习web3相关知识</t>
+  </si>
+  <si>
+    <t>每天学习前端相关知识</t>
+  </si>
+  <si>
+    <t>学习英文</t>
+  </si>
+  <si>
+    <t>每天20分钟</t>
+  </si>
+  <si>
+    <t>健康饮食,12点前睡觉</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>学习理财</t>
+  </si>
+  <si>
+    <t>每周至少2小时理财学习</t>
+  </si>
+  <si>
+    <t>10分</t>
+  </si>
+  <si>
     <t>阅读书籍</t>
   </si>
   <si>
-    <t>每周2小时</t>
-  </si>
-  <si>
-    <t>学习前端知识,学习web3相关知识</t>
-  </si>
-  <si>
-    <t>每天</t>
-  </si>
-  <si>
-    <t>学习英文</t>
-  </si>
-  <si>
-    <t>每天20分钟</t>
-  </si>
-  <si>
-    <t>12点前睡觉</t>
+    <t>每周至少2小时读书</t>
   </si>
   <si>
     <t>总结</t>
   </si>
   <si>
-    <t>1、每周至少2次健身塑形
-2、每周至少2小时阅读书籍
-3、每天学习前端知识
-4、每天学习英文20分钟
-5、12点前睡觉</t>
+    <t>1、每周至少3次健身塑形或者打羽毛球
+2、每天学习前端知识
+3、每天学习英文20分钟
+4、健康饮食,12点前睡觉
+5、每周至少2小时阅读书籍
+6、每周至少2小时理财学习</t>
   </si>
 </sst>
 </file>
@@ -249,9 +292,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -286,9 +329,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,6 +365,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,134 +478,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -451,67 +494,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,109 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,6 +679,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,26 +750,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,202 +769,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -893,12 +936,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1246,148 +1286,218 @@
   <sheetPr/>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="68" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="7"/>
-    <col min="2" max="8" width="16.125" style="8"/>
-    <col min="9" max="9" width="16.125" style="9"/>
-    <col min="10" max="10" width="37.3392857142857" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="16.125" style="8"/>
+    <col min="1" max="1" width="16.125" style="6"/>
+    <col min="2" max="8" width="16.125" style="7"/>
+    <col min="9" max="9" width="16.125" style="8"/>
+    <col min="10" max="10" width="37.3392857142857" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="16.125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="5" customFormat="1" ht="29" customHeight="1" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="29" customHeight="1" spans="1:11">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1.01</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="9">
-        <v>0.45</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="7" t="s">
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" customHeight="1" spans="9:9">
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" customHeight="1" spans="9:9">
-      <c r="I7" s="13"/>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" customHeight="1" spans="9:9">
-      <c r="I8" s="13"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="25" customHeight="1" spans="9:9">
-      <c r="I25" s="13"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="31" customHeight="1" spans="9:9">
-      <c r="I31" s="13"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" customHeight="1" spans="9:9">
-      <c r="I32" s="13"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" customHeight="1" spans="9:9">
-      <c r="I33" s="13"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" customHeight="1" spans="9:9">
-      <c r="I34" s="13"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="43" customHeight="1" spans="9:9">
-      <c r="I43" s="13"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="51" customHeight="1" spans="9:9">
-      <c r="I51" s="13"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="55" customHeight="1" spans="9:9">
-      <c r="I55" s="13"/>
+      <c r="I55" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1402,7 +1512,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5e269497-1c63-4b49-ade0-ae6d89c38909}</x14:id>
+          <x14:id>{cde8f062-ea18-41fd-967b-75ece580ab36}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1414,7 +1524,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5e269497-1c63-4b49-ade0-ae6d89c38909}">
+          <x14:cfRule type="dataBar" id="{cde8f062-ea18-41fd-967b-75ece580ab36}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1437,157 +1547,157 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.1875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.1875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" ht="62" spans="1:5">
-      <c r="A2" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="78" customHeight="1" spans="1:5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="100" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="124" spans="1:5">
-      <c r="A4" s="5">
+    <row r="4" s="3" customFormat="1" ht="139" customHeight="1" spans="1:5">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="13" spans="1:5">
-      <c r="A5" s="5">
+    <row r="5" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="50" spans="1:5">
-      <c r="A6" s="5">
+    <row r="6" ht="70" customHeight="1" spans="1:5">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="38" spans="1:5">
-      <c r="A7" s="5">
+    <row r="7" ht="65" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="50" spans="1:5">
-      <c r="A8" s="5">
+    <row r="8" ht="60" customHeight="1" spans="1:5">
+      <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1601,108 +1711,122 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="43.7410714285714" customWidth="1"/>
+    <col min="3" max="3" width="49.4017857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" ht="25" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" ht="62" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" ht="90" customHeight="1" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2023年个人计划/2023年计划.xlsx
+++ b/docs/年终总结/2023年个人计划/2023年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420" activeTab="2"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2023周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -119,6 +119,32 @@
     <t>1.23-1.29</t>
   </si>
   <si>
+    <t>深蹲4组,体态大师练背
+web3学习</t>
+  </si>
+  <si>
+    <t>打羽毛球
+hooks学习</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球  10
+2、每天学习前端知识  5
+3、每天学习英文20分钟 0
+4、健康饮食,12点前睡觉 0
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>1.30-2.05</t>
+  </si>
+  <si>
+    <t>学习hooks
+背英语单词
+深蹲+练背
+健康饮食
+11点半睡觉的</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -292,10 +318,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -329,14 +355,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,8 +399,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -373,111 +498,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -500,13 +526,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,31 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,25 +634,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,91 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,8 +711,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,15 +737,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,17 +771,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,159 +799,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1286,8 +1312,8 @@
   <sheetPr/>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="68" customHeight="1"/>
@@ -1451,7 +1477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:9">
+    <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -1470,9 +1496,29 @@
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" customHeight="1" spans="9:9">
+      <c r="G7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="12"/>
     </row>
     <row r="25" customHeight="1" spans="9:9">
@@ -1512,7 +1558,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cde8f062-ea18-41fd-967b-75ece580ab36}</x14:id>
+          <x14:id>{d3ff3c72-8020-47f4-9b14-f94beab3f139}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1524,7 +1570,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cde8f062-ea18-41fd-967b-75ece580ab36}">
+          <x14:cfRule type="dataBar" id="{d3ff3c72-8020-47f4-9b14-f94beab3f139}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1564,22 +1610,22 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="78" customHeight="1" spans="1:5">
@@ -1587,13 +1633,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1604,13 +1650,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -1621,13 +1667,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1638,13 +1684,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1655,13 +1701,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -1672,13 +1718,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1689,13 +1735,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1713,7 +1759,7 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1725,16 +1771,16 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:4">
@@ -1742,13 +1788,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
@@ -1756,13 +1802,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:4">
@@ -1770,13 +1816,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
@@ -1784,13 +1830,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
@@ -1798,13 +1844,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:4">
@@ -1812,21 +1858,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="90" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2023年个人计划/2023年计划.xlsx
+++ b/docs/年终总结/2023年个人计划/2023年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -145,6 +145,25 @@
 11点半睡觉的</t>
   </si>
   <si>
+    <t>学习hooks
+背英语单词
+深蹲+练背
+健康饮食</t>
+  </si>
+  <si>
+    <t>学习hooks
+背英语单词
+深蹲+练背
+健康饮食
+早睡</t>
+  </si>
+  <si>
+    <t>学习hooks
+背英语单词
+打羽毛球
+健康饮食</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -318,10 +337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -355,7 +374,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,10 +472,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,7 +502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,9 +510,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,104 +523,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -526,13 +545,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,157 +677,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,32 +730,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,6 +751,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -771,13 +784,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,157 +816,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,8 +1331,8 @@
   <sheetPr/>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="68" customHeight="1"/>
@@ -1519,6 +1538,15 @@
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I8" s="12"/>
     </row>
     <row r="25" customHeight="1" spans="9:9">
@@ -1558,7 +1586,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d3ff3c72-8020-47f4-9b14-f94beab3f139}</x14:id>
+          <x14:id>{3f8ad9a4-8f9b-4fd6-bb7c-ff47c8ebf9d4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1570,7 +1598,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d3ff3c72-8020-47f4-9b14-f94beab3f139}">
+          <x14:cfRule type="dataBar" id="{3f8ad9a4-8f9b-4fd6-bb7c-ff47c8ebf9d4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1610,22 +1638,22 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="78" customHeight="1" spans="1:5">
@@ -1633,13 +1661,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1650,13 +1678,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -1667,13 +1695,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1684,13 +1712,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1701,13 +1729,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -1718,13 +1746,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1735,13 +1763,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1771,16 +1799,16 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:4">
@@ -1788,13 +1816,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
@@ -1802,13 +1830,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:4">
@@ -1816,13 +1844,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
@@ -1830,13 +1858,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
@@ -1844,13 +1872,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:4">
@@ -1858,21 +1886,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="90" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2023年个人计划/2023年计划.xlsx
+++ b/docs/年终总结/2023年个人计划/2023年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -164,6 +164,26 @@
 健康饮食</t>
   </si>
   <si>
+    <t xml:space="preserve">深蹲+练背
+健康饮食
+</t>
+  </si>
+  <si>
+    <t>打羽毛球
+健康饮食</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球  17
+2、每天学习前端知识  13
+3、每天学习英文20分钟 13
+4、健康饮食,12点前睡觉 12
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>2.06-2.12</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -337,10 +357,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -374,7 +394,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,8 +407,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,68 +529,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -473,52 +538,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,13 +559,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,163 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,11 +747,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,7 +831,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,212 +839,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1331,8 +1351,8 @@
   <sheetPr/>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="68" customHeight="1"/>
@@ -1528,7 +1548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:9">
+    <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -1547,7 +1567,23 @@
       <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="G8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" customHeight="1" spans="9:9">
       <c r="I25" s="12"/>
@@ -1586,7 +1622,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3f8ad9a4-8f9b-4fd6-bb7c-ff47c8ebf9d4}</x14:id>
+          <x14:id>{fe3ab5e2-e11c-4ec6-a168-6d3261970eca}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1598,7 +1634,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3f8ad9a4-8f9b-4fd6-bb7c-ff47c8ebf9d4}">
+          <x14:cfRule type="dataBar" id="{fe3ab5e2-e11c-4ec6-a168-6d3261970eca}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1638,22 +1674,22 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" ht="78" customHeight="1" spans="1:5">
@@ -1661,13 +1697,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1678,13 +1714,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -1695,13 +1731,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1712,13 +1748,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1729,13 +1765,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -1746,13 +1782,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1763,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1799,16 +1835,16 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:4">
@@ -1816,13 +1852,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
@@ -1830,13 +1866,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:4">
@@ -1844,13 +1880,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
         <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
@@ -1858,13 +1894,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
@@ -1872,13 +1908,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:4">
@@ -1886,21 +1922,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="90" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2023年个人计划/2023年计划.xlsx
+++ b/docs/年终总结/2023年个人计划/2023年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="2023周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -184,6 +184,135 @@
     <t>2.06-2.12</t>
   </si>
   <si>
+    <t>学习hooks
+深蹲
+健康饮食</t>
+  </si>
+  <si>
+    <t>学习hooks
+打羽毛球
+健康饮食</t>
+  </si>
+  <si>
+    <t>队内对抗赛</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球  20
+2、每天学习前端知识  11
+3、每天学习英文20分钟 9
+4、健康饮食,12点前睡觉 10
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>2.13-2.19</t>
+  </si>
+  <si>
+    <t>背英语单词
+健康饮食
+早睡</t>
+  </si>
+  <si>
+    <t>背英语单词
+学习gulp
+健康饮食
+早睡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打羽毛球、拉伸
+学习gulp
+背英语单词
+</t>
+  </si>
+  <si>
+    <t>打羽毛球、拉伸
+健康饮食</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球 12
+2、每天学习前端知识  6
+3、每天学习英文20分钟  10
+4、健康饮食,12点前睡觉 10
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>2.20-2.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打羽毛球
+背英语单词
+</t>
+  </si>
+  <si>
+    <t>早睡,健康饮食</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打羽毛球
+学习合约交互
+背英语单词
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打羽毛球、拉伸
+</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球 20
+2、每天学习前端知识  0
+3、每天学习英文20分钟  6
+4、健康饮食,12点前睡觉  6
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>2.27-3.05</t>
+  </si>
+  <si>
+    <t>深蹲,练背
+学习合约对接
+背英语单词
+早睡,饮食健康</t>
+  </si>
+  <si>
+    <t>饮食健康</t>
+  </si>
+  <si>
+    <t>打羽毛球,拉伸
+学习前端工程化
+背英语单词
+早睡,饮食健康</t>
+  </si>
+  <si>
+    <t>打羽毛球、拉伸</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球 20
+2、每天学习前端知识  0
+3、每天学习英文20分钟  0
+4、健康饮食,12点前睡觉  6
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>3.06-3.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">练背
+学习前端代码格式校验
+背英语单词
+早睡,饮食健康
+</t>
+  </si>
+  <si>
+    <t>学习前端工程化代码格式校验</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打羽毛球
+学习前端工程化代码格式校验
+</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -357,30 +486,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -388,50 +517,76 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -439,37 +594,37 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -477,69 +632,43 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -559,181 +688,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,36 +873,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -803,11 +902,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,9 +956,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,148 +976,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1144,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1024,63 +1153,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1351,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="68" customHeight="1"/>
@@ -1360,7 +1489,7 @@
     <col min="1" max="1" width="16.125" style="6"/>
     <col min="2" max="8" width="16.125" style="7"/>
     <col min="9" max="9" width="16.125" style="8"/>
-    <col min="10" max="10" width="37.3392857142857" style="7" customWidth="1"/>
+    <col min="10" max="10" width="37.3359375" style="7" customWidth="1"/>
     <col min="11" max="16384" width="16.125" style="7"/>
   </cols>
   <sheetData>
@@ -1580,9 +1709,146 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:1">
+    <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="9:9">
@@ -1622,7 +1888,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fe3ab5e2-e11c-4ec6-a168-6d3261970eca}</x14:id>
+          <x14:id>{7cb96746-ecd3-4467-9677-e8cd00768f1a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1634,7 +1900,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fe3ab5e2-e11c-4ec6-a168-6d3261970eca}">
+          <x14:cfRule type="dataBar" id="{7cb96746-ecd3-4467-9677-e8cd00768f1a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1661,7 +1927,7 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
@@ -1674,22 +1940,22 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="78" customHeight="1" spans="1:5">
@@ -1697,30 +1963,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="100" spans="1:5">
+    <row r="3" ht="129" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -1731,13 +1997,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1748,13 +2014,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1765,13 +2031,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -1782,13 +2048,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1799,13 +2065,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1827,24 +2093,24 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="43.7410714285714" customWidth="1"/>
-    <col min="3" max="3" width="49.4017857142857" customWidth="1"/>
+    <col min="2" max="2" width="43.7421875" customWidth="1"/>
+    <col min="3" max="3" width="49.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:4">
@@ -1852,13 +2118,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
@@ -1866,13 +2132,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:4">
@@ -1880,13 +2146,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
@@ -1894,13 +2160,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
@@ -1908,13 +2174,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:4">
@@ -1922,21 +2188,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" ht="90" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2023年个人计划/2023年计划.xlsx
+++ b/docs/年终总结/2023年个人计划/2023年计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -311,6 +311,38 @@
     <t xml:space="preserve">打羽毛球
 学习前端工程化代码格式校验
 </t>
+  </si>
+  <si>
+    <t>gulp学习</t>
+  </si>
+  <si>
+    <t>打羽毛球
+gulp学习</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球 20
+2、每天学习前端知识  20
+3、每天学习英文20分钟  0
+4、健康饮食,12点前睡觉  0
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>3.13-3.19</t>
+  </si>
+  <si>
+    <t>打羽毛球</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球 15
+2、每天学习前端知识  0
+3、每天学习英文20分钟  0
+4、健康饮食,12点前睡觉  0
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>3.20-3.26</t>
   </si>
   <si>
     <t>序号</t>
@@ -487,9 +519,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -522,14 +554,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -553,34 +577,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,16 +591,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -621,31 +629,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,7 +645,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,6 +665,45 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -688,181 +720,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,30 +913,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,6 +947,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -956,6 +973,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -965,159 +991,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1480,8 +1512,8 @@
   <sheetPr/>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="68" customHeight="1"/>
@@ -1837,7 +1869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -1849,6 +1881,61 @@
       </c>
       <c r="D13" s="7" t="s">
         <v>64</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:1">
+      <c r="A15" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="9:9">
@@ -1888,7 +1975,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7cb96746-ecd3-4467-9677-e8cd00768f1a}</x14:id>
+          <x14:id>{1afe05b2-ba36-4eed-b0a1-70bf24ad4bb8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1900,7 +1987,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7cb96746-ecd3-4467-9677-e8cd00768f1a}">
+          <x14:cfRule type="dataBar" id="{1afe05b2-ba36-4eed-b0a1-70bf24ad4bb8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1940,22 +2027,22 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="78" customHeight="1" spans="1:5">
@@ -1963,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -1980,13 +2067,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -1997,13 +2084,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2014,13 +2101,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2031,13 +2118,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -2048,13 +2135,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2065,13 +2152,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2101,16 +2188,16 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:4">
@@ -2118,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
@@ -2132,13 +2219,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:4">
@@ -2146,13 +2233,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
@@ -2160,13 +2247,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
@@ -2174,13 +2261,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:4">
@@ -2188,21 +2275,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="90" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2023年个人计划/2023年计划.xlsx
+++ b/docs/年终总结/2023年个人计划/2023年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13140"/>
+    <workbookView windowWidth="27980" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2023周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -345,6 +345,89 @@
     <t>3.20-3.26</t>
   </si>
   <si>
+    <t>sentry学习</t>
+  </si>
+  <si>
+    <t>打羽毛球
+sentry学习</t>
+  </si>
+  <si>
+    <t>web3项目</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球 5
+2、每天学习前端知识  10
+3、每天学习英文20分钟  0
+4、健康饮食,12点前睡觉  0
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>3.27-4.02</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球 15
+2、每天学习前端知识  15
+3、每天学习英文20分钟  0
+4、健康饮食,12点前睡觉  5
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>4.03-4.09</t>
+  </si>
+  <si>
+    <t>打羽毛球
+web3项目</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球 20
+2、每天学习前端知识  10
+3、每天学习英文20分钟  0
+4、健康饮食,12点前睡觉  5
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>4.10-4.16</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球 20
+2、每天学习前端知识  7
+3、每天学习英文20分钟  0
+4、健康饮食,12点前睡觉  5
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>4.17-4.23</t>
+  </si>
+  <si>
+    <t>php学习</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球 20
+2、每天学习前端知识  5
+3、每天学习英文20分钟  0
+4、健康饮食,12点前睡觉  0
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>4.24-4.30</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球 0
+2、每天学习前端知识  20
+3、每天学习英文20分钟  5
+4、健康饮食,12点前睡觉  0
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>5.01-5.07</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -518,30 +601,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -549,14 +632,150 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -564,144 +783,8 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -720,181 +803,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,23 +994,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,26 +1024,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,151 +1058,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,7 +1259,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1185,63 +1268,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1512,8 +1595,8 @@
   <sheetPr/>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="68" customHeight="1"/>
@@ -1521,7 +1604,7 @@
     <col min="1" max="1" width="16.125" style="6"/>
     <col min="2" max="8" width="16.125" style="7"/>
     <col min="9" max="9" width="16.125" style="8"/>
-    <col min="10" max="10" width="37.3359375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="37.3392857142857" style="7" customWidth="1"/>
     <col min="11" max="16384" width="16.125" style="7"/>
   </cols>
   <sheetData>
@@ -1933,9 +2016,197 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:1">
+    <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="6" t="s">
         <v>71</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:1">
+      <c r="A21" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="9:9">
@@ -1975,7 +2246,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1afe05b2-ba36-4eed-b0a1-70bf24ad4bb8}</x14:id>
+          <x14:id>{86e9fd57-4feb-4f26-9c5f-1262f6f58092}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1987,7 +2258,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1afe05b2-ba36-4eed-b0a1-70bf24ad4bb8}">
+          <x14:cfRule type="dataBar" id="{86e9fd57-4feb-4f26-9c5f-1262f6f58092}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2014,7 +2285,7 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
@@ -2027,22 +2298,22 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" ht="78" customHeight="1" spans="1:5">
@@ -2050,30 +2321,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="129" spans="1:5">
+    <row r="3" ht="100" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2084,13 +2355,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2101,13 +2372,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2118,13 +2389,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -2135,13 +2406,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2152,13 +2423,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2180,24 +2451,24 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="43.7421875" customWidth="1"/>
-    <col min="3" max="3" width="49.3984375" customWidth="1"/>
+    <col min="2" max="2" width="43.7410714285714" customWidth="1"/>
+    <col min="3" max="3" width="49.4017857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:4">
@@ -2205,13 +2476,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
@@ -2219,13 +2490,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:4">
@@ -2233,13 +2504,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
@@ -2247,13 +2518,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
@@ -2261,13 +2532,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:4">
@@ -2275,21 +2546,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" ht="90" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2023年个人计划/2023年计划.xlsx
+++ b/docs/年终总结/2023年个人计划/2023年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27980" windowHeight="13420"/>
+    <workbookView windowWidth="27940" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="2023周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -417,6 +417,9 @@
     <t>4.24-4.30</t>
   </si>
   <si>
+    <t>五一假期</t>
+  </si>
+  <si>
     <t>1、每周至少3次健身塑形或者打羽毛球 0
 2、每天学习前端知识  20
 3、每天学习英文20分钟  5
@@ -601,30 +604,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -632,73 +635,120 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -706,60 +756,29 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -767,24 +786,8 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -803,13 +806,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,163 +938,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,11 +994,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,24 +1065,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1044,195 +1074,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1259,7 +1262,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1268,63 +1271,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1596,7 +1599,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="68" customHeight="1"/>
@@ -1604,7 +1607,7 @@
     <col min="1" max="1" width="16.125" style="6"/>
     <col min="2" max="8" width="16.125" style="7"/>
     <col min="9" max="9" width="16.125" style="8"/>
-    <col min="10" max="10" width="37.3392857142857" style="7" customWidth="1"/>
+    <col min="10" max="10" width="37.3359375" style="7" customWidth="1"/>
     <col min="11" max="16384" width="16.125" style="7"/>
   </cols>
   <sheetData>
@@ -2195,18 +2198,31 @@
       <c r="F20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="I20" s="8">
         <v>0.25</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" s="6" t="s">
-        <v>88</v>
+      <c r="C21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="9:9">
@@ -2246,7 +2262,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86e9fd57-4feb-4f26-9c5f-1262f6f58092}</x14:id>
+          <x14:id>{2494f482-1f2d-44e8-b254-961dcf946a2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2258,7 +2274,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86e9fd57-4feb-4f26-9c5f-1262f6f58092}">
+          <x14:cfRule type="dataBar" id="{2494f482-1f2d-44e8-b254-961dcf946a2c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2285,7 +2301,7 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
@@ -2298,22 +2314,22 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" ht="78" customHeight="1" spans="1:5">
@@ -2321,30 +2337,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="100" spans="1:5">
+    <row r="3" ht="129" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2355,13 +2371,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2372,13 +2388,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2389,13 +2405,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -2406,13 +2422,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2423,13 +2439,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2451,24 +2467,24 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="43.7410714285714" customWidth="1"/>
-    <col min="3" max="3" width="49.4017857142857" customWidth="1"/>
+    <col min="2" max="2" width="43.7421875" customWidth="1"/>
+    <col min="3" max="3" width="49.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:4">
@@ -2476,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
@@ -2490,13 +2506,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
         <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:4">
@@ -2504,13 +2520,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
@@ -2518,13 +2534,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
@@ -2532,13 +2548,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:4">
@@ -2546,21 +2562,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
         <v>131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" ht="90" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2023年个人计划/2023年计划.xlsx
+++ b/docs/年终总结/2023年个人计划/2023年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13140"/>
+    <workbookView windowWidth="27980" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="2023周计划" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -429,6 +429,24 @@
   </si>
   <si>
     <t>5.01-5.07</t>
+  </si>
+  <si>
+    <t>打羽毛球
+php学习</t>
+  </si>
+  <si>
+    <t>1、每周至少3次健身塑形或者打羽毛球 0
+2、每天学习前端知识  5
+3、每天学习英文20分钟  5
+4、健康饮食,12点前睡觉  0
+5、每周至少2小时阅读书籍 0
+6、每周至少2小时理财学习 0</t>
+  </si>
+  <si>
+    <t>5.08-5.14</t>
+  </si>
+  <si>
+    <t>web3学习</t>
   </si>
   <si>
     <t>序号</t>
@@ -640,10 +658,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,31 +712,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,6 +743,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -701,38 +765,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,49 +781,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -806,181 +824,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,21 +1009,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1020,6 +1023,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,13 +1075,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,157 +1101,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1598,8 +1616,8 @@
   <sheetPr/>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="68" customHeight="1"/>
@@ -2211,7 +2229,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
+    <row r="21" customHeight="1" spans="1:10">
       <c r="A21" s="6" t="s">
         <v>89</v>
       </c>
@@ -2223,6 +2241,35 @@
       </c>
       <c r="D21" s="7" t="s">
         <v>87</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="9:9">
@@ -2262,7 +2309,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2494f482-1f2d-44e8-b254-961dcf946a2c}</x14:id>
+          <x14:id>{a532d2de-f2c7-4014-9ee2-b0d4acf2835a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2274,7 +2321,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2494f482-1f2d-44e8-b254-961dcf946a2c}">
+          <x14:cfRule type="dataBar" id="{a532d2de-f2c7-4014-9ee2-b0d4acf2835a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2314,22 +2361,22 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" ht="78" customHeight="1" spans="1:5">
@@ -2337,13 +2384,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2354,13 +2401,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2371,13 +2418,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2388,13 +2435,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -2405,13 +2452,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -2422,13 +2469,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2439,13 +2486,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2475,16 +2522,16 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:4">
@@ -2492,13 +2539,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
@@ -2506,13 +2553,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:4">
@@ -2520,13 +2567,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
         <v>126</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
@@ -2534,13 +2581,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
@@ -2548,13 +2595,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:4">
@@ -2562,21 +2609,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" ht="90" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
